--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd80-Ctla4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,25 +528,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539733</v>
+        <v>0.7715313333333333</v>
       </c>
       <c r="H2">
-        <v>1.619199</v>
+        <v>2.314594</v>
       </c>
       <c r="I2">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="J2">
-        <v>0.0338608224813917</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.08586000000000001</v>
+        <v>0.005070666666666667</v>
       </c>
       <c r="N2">
-        <v>0.25758</v>
+        <v>0.015212</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.008865695667453655</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.008865695667453653</v>
       </c>
       <c r="Q2">
-        <v>0.04634147538</v>
+        <v>0.003912178214222222</v>
       </c>
       <c r="R2">
-        <v>0.4170732784200001</v>
+        <v>0.035209603928</v>
       </c>
       <c r="S2">
-        <v>0.0338608224813917</v>
+        <v>0.0004585611233023159</v>
       </c>
       <c r="T2">
-        <v>0.0338608224813917</v>
+        <v>0.0004585611233023159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.713472666666667</v>
+        <v>0.7715313333333333</v>
       </c>
       <c r="H3">
-        <v>11.140418</v>
+        <v>2.314594</v>
       </c>
       <c r="I3">
-        <v>0.2329693362375475</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="J3">
-        <v>0.2329693362375475</v>
+        <v>0.05172308417778351</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.08586000000000001</v>
+        <v>0.5668716666666667</v>
       </c>
       <c r="N3">
-        <v>0.25758</v>
+        <v>1.700615</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9911343043325463</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9911343043325463</v>
       </c>
       <c r="Q3">
-        <v>0.31883876316</v>
+        <v>0.4373592528122222</v>
       </c>
       <c r="R3">
-        <v>2.86954886844</v>
+        <v>3.93623327531</v>
       </c>
       <c r="S3">
-        <v>0.2329693362375475</v>
+        <v>0.05126452305448119</v>
       </c>
       <c r="T3">
-        <v>0.2329693362375475</v>
+        <v>0.0512645230544812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.049821333333333</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H4">
-        <v>3.149464</v>
+        <v>11.140418</v>
       </c>
       <c r="I4">
-        <v>0.06586184985016284</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="J4">
-        <v>0.06586184985016284</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08586000000000001</v>
+        <v>0.005070666666666667</v>
       </c>
       <c r="N4">
-        <v>0.25758</v>
+        <v>0.015212</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.008865695667453655</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.008865695667453653</v>
       </c>
       <c r="Q4">
-        <v>0.09013765968</v>
+        <v>0.01882978206844444</v>
       </c>
       <c r="R4">
-        <v>0.8112389371200001</v>
+        <v>0.169468038616</v>
       </c>
       <c r="S4">
-        <v>0.06586184985016284</v>
+        <v>0.002207109580400424</v>
       </c>
       <c r="T4">
-        <v>0.06586184985016284</v>
+        <v>0.002207109580400424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,46 +723,294 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.63672166666667</v>
+        <v>3.713472666666666</v>
       </c>
       <c r="H5">
-        <v>31.910165</v>
+        <v>11.140418</v>
       </c>
       <c r="I5">
-        <v>0.6673079914308979</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="J5">
-        <v>0.6673079914308979</v>
+        <v>0.2489493958723191</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5668716666666667</v>
+      </c>
+      <c r="N5">
+        <v>1.700615</v>
+      </c>
+      <c r="O5">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="P5">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="Q5">
+        <v>2.105062439674444</v>
+      </c>
+      <c r="R5">
+        <v>18.94556195707</v>
+      </c>
+      <c r="S5">
+        <v>0.2467422862919186</v>
+      </c>
+      <c r="T5">
+        <v>0.2467422862919187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.701035666666667</v>
+      </c>
+      <c r="H6">
+        <v>5.103107</v>
+      </c>
+      <c r="I6">
+        <v>0.1140366012048922</v>
+      </c>
+      <c r="J6">
+        <v>0.1140366012048922</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.08586000000000001</v>
-      </c>
-      <c r="N5">
-        <v>0.25758</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.9132689223</v>
-      </c>
-      <c r="R5">
-        <v>8.219420300700001</v>
-      </c>
-      <c r="S5">
-        <v>0.6673079914308979</v>
-      </c>
-      <c r="T5">
-        <v>0.6673079914308979</v>
+      <c r="M6">
+        <v>0.005070666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.015212</v>
+      </c>
+      <c r="O6">
+        <v>0.008865695667453655</v>
+      </c>
+      <c r="P6">
+        <v>0.008865695667453653</v>
+      </c>
+      <c r="Q6">
+        <v>0.008625384853777777</v>
+      </c>
+      <c r="R6">
+        <v>0.07762846368399999</v>
+      </c>
+      <c r="S6">
+        <v>0.001011013801233353</v>
+      </c>
+      <c r="T6">
+        <v>0.001011013801233353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.701035666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.103107</v>
+      </c>
+      <c r="I7">
+        <v>0.1140366012048922</v>
+      </c>
+      <c r="J7">
+        <v>0.1140366012048922</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5668716666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.700615</v>
+      </c>
+      <c r="O7">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="P7">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="Q7">
+        <v>0.9642689234227777</v>
+      </c>
+      <c r="R7">
+        <v>8.678420310804999</v>
+      </c>
+      <c r="S7">
+        <v>0.1130255874036589</v>
+      </c>
+      <c r="T7">
+        <v>0.1130255874036589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>8.730536666666668</v>
+      </c>
+      <c r="H8">
+        <v>26.19161</v>
+      </c>
+      <c r="I8">
+        <v>0.5852909187450052</v>
+      </c>
+      <c r="J8">
+        <v>0.5852909187450052</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.005070666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.015212</v>
+      </c>
+      <c r="O8">
+        <v>0.008865695667453655</v>
+      </c>
+      <c r="P8">
+        <v>0.008865695667453653</v>
+      </c>
+      <c r="Q8">
+        <v>0.04426964125777778</v>
+      </c>
+      <c r="R8">
+        <v>0.39842677132</v>
+      </c>
+      <c r="S8">
+        <v>0.005189011162517561</v>
+      </c>
+      <c r="T8">
+        <v>0.00518901116251756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>8.730536666666668</v>
+      </c>
+      <c r="H9">
+        <v>26.19161</v>
+      </c>
+      <c r="I9">
+        <v>0.5852909187450052</v>
+      </c>
+      <c r="J9">
+        <v>0.5852909187450052</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5668716666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.700615</v>
+      </c>
+      <c r="O9">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="P9">
+        <v>0.9911343043325463</v>
+      </c>
+      <c r="Q9">
+        <v>4.949093871127778</v>
+      </c>
+      <c r="R9">
+        <v>44.54184484015</v>
+      </c>
+      <c r="S9">
+        <v>0.5801019075824876</v>
+      </c>
+      <c r="T9">
+        <v>0.5801019075824876</v>
       </c>
     </row>
   </sheetData>
